--- a/results/testcase1/time_precision/times_table_param1_degree1_1e-4.xlsx
+++ b/results/testcase1/time_precision/times_table_param1_degree1_1e-4.xlsx
@@ -14,27 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>mesh</t>
-  </si>
-  <si>
-    <t>get_u_PINNs</t>
-  </si>
-  <si>
-    <t>assemble</t>
-  </si>
-  <si>
-    <t>solve</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>FEM</t>
   </si>
   <si>
-    <t>Corr_FEM</t>
+    <t>Add</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>time (s)</t>
   </si>
 </sst>
 </file>
@@ -392,64 +383,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B2">
+        <v>199.1645779556491</v>
+      </c>
+      <c r="C2">
+        <v>40.72881283212612</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>0.0009497993977103195</v>
-      </c>
-      <c r="D2">
-        <v>32.81868299751557</v>
-      </c>
-      <c r="E2">
-        <v>0.05110442223281876</v>
-      </c>
-      <c r="F2">
-        <v>32.87073721914609</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="B3">
-        <v>0.0001005172709344677</v>
+        <v>110.1367104852834</v>
       </c>
       <c r="C3">
-        <v>0.1995552448682716</v>
-      </c>
-      <c r="D3">
-        <v>2.313811625492584</v>
-      </c>
-      <c r="E3">
-        <v>0.003048596853528462</v>
-      </c>
-      <c r="F3">
-        <v>2.516515984485319</v>
+        <v>4.760736933112288</v>
       </c>
     </row>
   </sheetData>
